--- a/Sahithi/MKBD_DiagserviceList_2205.xlsx
+++ b/Sahithi/MKBD_DiagserviceList_2205.xlsx
@@ -650,7 +650,11 @@
           <t>DefaultSession</t>
         </is>
       </c>
-      <c r="G2" s="8" t="n"/>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>0x50</t>
+        </is>
+      </c>
       <c r="H2" s="8" t="n"/>
       <c r="I2" s="8" t="b">
         <v>0</v>
@@ -687,7 +691,11 @@
           <t>ProgrammingSession</t>
         </is>
       </c>
-      <c r="G3" s="8" t="n"/>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>0x50</t>
+        </is>
+      </c>
       <c r="H3" s="8" t="n"/>
       <c r="I3" s="8" t="b">
         <v>0</v>
@@ -724,7 +732,11 @@
           <t>ExtendedDiagnosticSession</t>
         </is>
       </c>
-      <c r="G4" s="8" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>0x50</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
       <c r="I4" s="8" t="b">
         <v>0</v>
@@ -761,7 +773,11 @@
           <t>Hard_Reset</t>
         </is>
       </c>
-      <c r="G5" s="8" t="n"/>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>0x51</t>
+        </is>
+      </c>
       <c r="H5" s="8" t="n"/>
       <c r="I5" s="8" t="b">
         <v>0</v>
@@ -798,7 +814,11 @@
           <t>Soft_Reset</t>
         </is>
       </c>
-      <c r="G6" s="8" t="n"/>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>0x51</t>
+        </is>
+      </c>
       <c r="H6" s="8" t="n"/>
       <c r="I6" s="8" t="b">
         <v>0</v>
@@ -835,7 +855,11 @@
           <t>SeedLevel1</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>0x67</t>
+        </is>
+      </c>
       <c r="H7" s="8" t="n"/>
       <c r="I7" s="8" t="b">
         <v>0</v>
@@ -872,7 +896,11 @@
           <t>KeyLevel1</t>
         </is>
       </c>
-      <c r="G8" s="8" t="n"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>0x67</t>
+        </is>
+      </c>
       <c r="H8" s="8" t="n"/>
       <c r="I8" s="8" t="b">
         <v>0</v>
@@ -909,7 +937,11 @@
           <t>requestSeed_ASK</t>
         </is>
       </c>
-      <c r="G9" s="8" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>0x67</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="n"/>
       <c r="I9" s="8" t="b">
         <v>0</v>
@@ -946,7 +978,11 @@
           <t>SendKey_ASK</t>
         </is>
       </c>
-      <c r="G10" s="8" t="n"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>0x67</t>
+        </is>
+      </c>
       <c r="H10" s="8" t="n"/>
       <c r="I10" s="8" t="b">
         <v>0</v>
@@ -983,7 +1019,11 @@
           <t>EnableRxAndEnableTx</t>
         </is>
       </c>
-      <c r="G11" s="8" t="n"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>0x68</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="n"/>
       <c r="I11" s="8" t="b">
         <v>0</v>
@@ -1020,7 +1060,11 @@
           <t>EnableRxAndDisableTx</t>
         </is>
       </c>
-      <c r="G12" s="8" t="n"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>0x68</t>
+        </is>
+      </c>
       <c r="H12" s="8" t="n"/>
       <c r="I12" s="8" t="b">
         <v>0</v>
@@ -1057,7 +1101,11 @@
           <t>DisableRxAndEnableTx</t>
         </is>
       </c>
-      <c r="G13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>0x68</t>
+        </is>
+      </c>
       <c r="H13" s="8" t="n"/>
       <c r="I13" s="8" t="b">
         <v>0</v>
@@ -1094,7 +1142,11 @@
           <t>DisableRxAndDisableTx</t>
         </is>
       </c>
-      <c r="G14" s="8" t="n"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>0x68</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="n"/>
       <c r="I14" s="8" t="b">
         <v>0</v>
@@ -1131,7 +1183,11 @@
           <t>RX_SWIN_F1_EF</t>
         </is>
       </c>
-      <c r="G15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="n"/>
       <c r="I15" s="8" t="b">
         <v>0</v>
@@ -1168,7 +1224,11 @@
           <t>B_CAN_Database_Version_F1_00</t>
         </is>
       </c>
-      <c r="G16" s="8" t="n"/>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H16" s="8" t="n"/>
       <c r="I16" s="8" t="b">
         <v>0</v>
@@ -1205,7 +1265,11 @@
           <t>Vehicle_Manufacturer_Spare_Part_Number_F1_87</t>
         </is>
       </c>
-      <c r="G17" s="8" t="n"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H17" s="8" t="n"/>
       <c r="I17" s="8" t="b">
         <v>0</v>
@@ -1242,7 +1306,11 @@
           <t>Manufacturing_F1_8B</t>
         </is>
       </c>
-      <c r="G18" s="8" t="n"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H18" s="8" t="n"/>
       <c r="I18" s="8" t="b">
         <v>0</v>
@@ -1279,7 +1347,11 @@
           <t>ECU_Serial_Number_F1_8C</t>
         </is>
       </c>
-      <c r="G19" s="8" t="n"/>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H19" s="8" t="n"/>
       <c r="I19" s="8" t="b">
         <v>0</v>
@@ -1316,7 +1388,11 @@
           <t>Vehicle_Manufacturer_ECU_HW_Number_F1_91</t>
         </is>
       </c>
-      <c r="G20" s="8" t="n"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="n"/>
       <c r="I20" s="8" t="b">
         <v>0</v>
@@ -1353,7 +1429,11 @@
           <t>HardwareVersionNumber_F1_93</t>
         </is>
       </c>
-      <c r="G21" s="8" t="n"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="n"/>
       <c r="I21" s="8" t="b">
         <v>0</v>
@@ -1390,7 +1470,11 @@
           <t>ECUSoftwareUnit1IVDDataIdentifier_F1_C1</t>
         </is>
       </c>
-      <c r="G22" s="8" t="n"/>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H22" s="8" t="n"/>
       <c r="I22" s="8" t="b">
         <v>0</v>
@@ -1427,7 +1511,11 @@
           <t>SystemSupplierECUSoftwareVersionNumbe_DataIdentifier_F1_95</t>
         </is>
       </c>
-      <c r="G23" s="8" t="n"/>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H23" s="8" t="n"/>
       <c r="I23" s="8" t="b">
         <v>0</v>
@@ -1464,7 +1552,11 @@
           <t>Software_Version_for_HKMC_Vehicle_Manufacture_F1_A0</t>
         </is>
       </c>
-      <c r="G24" s="8" t="n"/>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H24" s="8" t="n"/>
       <c r="I24" s="8" t="b">
         <v>0</v>
@@ -1501,7 +1593,11 @@
           <t>ECU_Supplier_Code_F1_A1</t>
         </is>
       </c>
-      <c r="G25" s="8" t="n"/>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H25" s="8" t="n"/>
       <c r="I25" s="8" t="b">
         <v>0</v>
@@ -1538,7 +1634,11 @@
           <t>ECU_Software_UNIT_number_F1_B0</t>
         </is>
       </c>
-      <c r="G26" s="8" t="n"/>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H26" s="8" t="n"/>
       <c r="I26" s="8" t="b">
         <v>0</v>
@@ -1575,7 +1675,11 @@
           <t>ECU_Software_UNIT1_Version_F1_B1</t>
         </is>
       </c>
-      <c r="G27" s="8" t="n"/>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H27" s="8" t="n"/>
       <c r="I27" s="8" t="b">
         <v>0</v>
@@ -1612,7 +1716,11 @@
           <t>S_W_Version_Dataidentifier_F1_DD</t>
         </is>
       </c>
-      <c r="G28" s="8" t="n"/>
+      <c r="G28" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H28" s="8" t="n"/>
       <c r="I28" s="8" t="b">
         <v>0</v>
@@ -1649,7 +1757,11 @@
           <t>SystemNameOrEngineTypeDataIdentifier</t>
         </is>
       </c>
-      <c r="G29" s="8" t="n"/>
+      <c r="G29" s="8" t="inlineStr">
+        <is>
+          <t>0x62</t>
+        </is>
+      </c>
       <c r="H29" s="8" t="n"/>
       <c r="I29" s="8" t="b">
         <v>0</v>
@@ -1686,7 +1798,11 @@
           <t>OTA_Ready</t>
         </is>
       </c>
-      <c r="G30" s="8" t="n"/>
+      <c r="G30" s="8" t="inlineStr">
+        <is>
+          <t>0x71</t>
+        </is>
+      </c>
       <c r="H30" s="8" t="n"/>
       <c r="I30" s="8" t="b">
         <v>0</v>
